--- a/Pre_Processing/abiotic_mi_sampling/Abiotic_MI_Lab_Model.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/Abiotic_MI_Lab_Model.xlsx
@@ -10934,13 +10934,13 @@
         <v>226.76</v>
       </c>
       <c r="BE35">
-        <v>2729492.519</v>
+        <v>2729487.626</v>
       </c>
       <c r="BF35">
-        <v>1122078.492</v>
+        <v>1122082.041</v>
       </c>
       <c r="BG35">
-        <v>276.81</v>
+        <v>277.155</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
@@ -11211,13 +11211,13 @@
         <v>226.76</v>
       </c>
       <c r="BE36">
-        <v>2729492.55</v>
+        <v>2729491.481</v>
       </c>
       <c r="BF36">
-        <v>1122078.544</v>
+        <v>1122079.902</v>
       </c>
       <c r="BG36">
-        <v>276.808</v>
+        <v>276.836</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
@@ -11494,13 +11494,13 @@
         <v>226.76</v>
       </c>
       <c r="BE37">
-        <v>2729483.169</v>
+        <v>2729492.519</v>
       </c>
       <c r="BF37">
-        <v>1122081.552</v>
+        <v>1122078.492</v>
       </c>
       <c r="BG37">
-        <v>277.027</v>
+        <v>276.81</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
